--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Thesis_Model_report/newsources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Presentation_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1680A33-3631-1942-9BA8-A9BC772214FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478AB244-D0E9-3A4F-A17D-57233A3A90FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{F1DC5997-B81C-1D4C-A161-165DD2CF14C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{F1DC5997-B81C-1D4C-A161-165DD2CF14C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="explication.tx.change" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>tx.change</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>1960 - 2022</t>
-  </si>
-  <si>
     <t>HTG/USD</t>
   </si>
   <si>
@@ -99,6 +97,12 @@
   </si>
   <si>
     <t>exp</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>une moyenne annuelle sur la base des moyennes mensuelles.</t>
   </si>
 </sst>
 </file>
@@ -510,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD8EBDE-6A7C-074F-9398-504B627F2B93}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -526,16 +530,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -544,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1570,99 +1574,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51A81E5-33FB-5D4F-84DA-90DBB0281FD0}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="225.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="225.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E10382-C4D9-8A41-8487-DFC2AF9819A3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="225.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Presentation_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478AB244-D0E9-3A4F-A17D-57233A3A90FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3DB766-F014-CA4B-A9DC-EC9179D4B1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{F1DC5997-B81C-1D4C-A161-165DD2CF14C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{F1DC5997-B81C-1D4C-A161-165DD2CF14C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,13 +149,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,23 +171,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -514,1057 +512,1058 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD8EBDE-6A7C-074F-9398-504B627F2B93}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>1988</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="11">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="11">
         <v>745600334</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="11">
         <v>499392985</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="11">
         <v>11370998251</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="12">
         <v>9288319548000</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="11">
         <v>4.5439999999999996</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>1989</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="11">
         <v>657818737</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="11">
         <v>549473202</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="11">
         <v>11039712814</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="12">
         <v>9629446844000</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="11">
         <v>4.859</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>1990</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="11">
         <v>834229358</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="11">
         <v>551332713</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="11">
         <v>11154318590</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="12">
         <v>9811432919000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="11">
         <v>5.8920000000000003</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>1991</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>6.0341666666666702</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="11">
         <v>704836857</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="11">
         <v>496638065</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="11">
         <v>11364080540</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="12">
         <v>9800432919000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="11">
         <v>6.8010000000000002</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>1992</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
         <v>9.8016666666666694</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="11">
         <v>626903014</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="11">
         <v>374412508</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="11">
         <v>10760655486</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="12">
         <v>10145647340000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="11">
         <v>8.1180000000000003</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>1993</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="11">
         <v>12.8225</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="11">
         <v>925716700</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="11">
         <v>457649660</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="11">
         <v>10176750469</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="12">
         <v>10424833341000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="11">
         <v>10.529</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>1994</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="11">
         <v>15.04</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="11">
         <v>757331148</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="11">
         <v>303552625</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="11">
         <v>8960564746</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="12">
         <v>10844828324000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="11">
         <v>14.67</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>1995</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="11">
         <v>15.109733333333301</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="11">
         <v>1281062678</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="11">
         <v>410306598</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="11">
         <v>9847455234</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="12">
         <v>11135927079000</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="11">
         <v>18.72</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>1996</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="11">
         <v>15.70115</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="11">
         <v>1698392335</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="11">
         <v>522320922</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="11">
         <v>10255216034</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="12">
         <v>11556037222000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="11">
         <v>22.574000000000002</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>1997</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="11">
         <v>16.654499999999999</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="11">
         <v>1820946308</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="11">
         <v>596893972</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="11">
         <v>10532590290</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="12">
         <v>12069954414000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="11">
         <v>27.215</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>1998</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="11">
         <v>16.7656666666667</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="11">
         <v>1941077488</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="11">
         <v>735828883</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="11">
         <v>10762394593</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="12">
         <v>12610856679000</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="11">
         <v>28.649000000000001</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="10">
         <v>1999</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="11">
         <v>16.937891666666701</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="11">
         <v>2381827658</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="11">
         <v>857126146</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="11">
         <v>11054082178</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="12">
         <v>13215484082000</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="11">
         <v>29.509</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="10">
         <v>2000</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="11">
         <v>21.170666666666701</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="11">
         <v>2580052840</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="11">
         <v>266998303</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="11">
         <v>11150259244</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="12">
         <v>13754300444000</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="11">
         <v>32.264000000000003</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="10">
         <v>2001</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="11">
         <v>24.429083333333299</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="11">
         <v>2501294679</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="11">
         <v>262119450</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="11">
         <v>11112041966</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="12">
         <v>13885563060000</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="11">
         <v>36.56</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="10">
         <v>2002</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="11">
         <v>29.2504833333333</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="11">
         <v>2410003411</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="11">
         <v>251250512</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="11">
         <v>11228920661</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="12">
         <v>14121054284000</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="11">
         <v>39.131</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="10">
         <v>2003</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="11">
         <v>42.366758333333301</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="11">
         <v>2664368099</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="11">
         <v>524038869</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="11">
         <v>11619774656</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="12">
         <v>14515908489000</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="11">
         <v>50.362000000000002</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="10">
         <v>2004</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="11">
         <v>38.352033333333303</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="11">
         <v>2684992998</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="11">
         <v>468876283</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="11">
         <v>11466642670</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="12">
         <v>15075141499000</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="11">
         <v>60.954000000000001</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="10">
         <v>2005</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="11">
         <v>40.448549999999997</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="11">
         <v>2523553664</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="11">
         <v>481325636</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="11">
         <v>11818917813</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="12">
         <v>15600241891000</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="11">
         <v>69.471000000000004</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="10">
         <v>2006</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="11">
         <v>40.408516666666699</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="11">
         <v>3004202345</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="11">
         <v>350351399</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="11">
         <v>12027964993</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="12">
         <v>16034367080000</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="11">
         <v>77.352999999999994</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="10">
         <v>2007</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="11">
         <v>36.861416666666699</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="11">
         <v>2876170061</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="11">
         <v>717478448</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="11">
         <v>12594064767</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="12">
         <v>16356739241000</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="11">
         <v>82.424999999999997</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="10">
         <v>2008</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="11">
         <v>39.1075916666667</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="11">
         <v>3257532927</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="11">
         <v>768662481</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="11">
         <v>12928819077</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="12">
         <v>16376725286000</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="11">
         <v>95.021000000000001</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="10">
         <v>2009</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="11">
         <v>41.197608333333299</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="11">
         <v>3452360261</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="11">
         <v>838386155</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="11">
         <v>13690375514</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="12">
         <v>15950948713000</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="11">
         <v>95.394999999999996</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="10">
         <v>2010</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="11">
         <v>39.797400000000003</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="11">
         <v>4339676816</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="11">
         <v>686833397</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="11">
         <v>12916662363</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="12">
         <v>16383037055000</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="11">
         <v>100</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="10">
         <v>2011</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="11">
         <v>40.522821939374403</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="11">
         <v>4196125299</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="11">
         <v>1580865372</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="11">
         <v>13575181393</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="12">
         <v>16636956919000</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="11">
         <v>106.333</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="10">
         <v>2012</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="11">
         <v>41.949722952315597</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="11">
         <v>3869442762</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="11">
         <v>1562010133</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="11">
         <v>13643386417</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="12">
         <v>17016393933000</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="11">
         <v>111.669</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="10">
         <v>2013</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="11">
         <v>43.462783333333299</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="11">
         <v>4314317512</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="11">
         <v>1650047860</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="11">
         <v>14233433426</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="12">
         <v>17329814706000</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="11">
         <v>116.99</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="10">
         <v>2014</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="11">
         <v>45.2159808923792</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="11">
         <v>4223512840</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="11">
         <v>1744864455</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="11">
         <v>14644604938</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="12">
         <v>17726282036000</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="11">
         <v>121.012</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="10">
         <v>2015</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="11">
         <v>50.706426673943902</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="11">
         <v>4481319846</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="11">
         <v>1747466817</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="11">
         <v>14849629408</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="12">
         <v>18206020741000</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="11">
         <v>129.15799999999999</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="10">
         <v>2016</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="11">
         <v>63.335818369892401</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="11">
         <v>5098194685</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="11">
         <v>1649811070</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="11">
         <v>15118774201</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="12">
         <v>18509601053000</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="11">
         <v>144.01499999999999</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="10">
         <v>2017</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="11">
         <v>64.769680284992802</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="11">
         <v>5730757919</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="11">
         <v>1658608711</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="11">
         <v>15498296457</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="12">
         <v>18924571726000</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="11">
         <v>159.39599999999999</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="10">
         <v>2018</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="11">
         <v>68.031753981281199</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="11">
         <v>6014098931</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="11">
         <v>1656636116</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="11">
         <v>15756778743</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="12">
         <v>19481973191000</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="11">
         <v>179.291</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="10">
         <v>2019</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="11">
         <v>88.814966176919299</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="11">
         <v>6298217964</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="11">
         <v>1621321956</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="11">
         <v>15485274162</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="12">
         <v>19928975197000</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="11">
         <v>212.82499999999999</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="10">
         <v>2020</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="11">
         <v>93.509807213621301</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="11">
         <v>5147018632</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="11">
         <v>1006359113</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="11">
         <v>14973407577</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="12">
         <v>19377380521000</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="11">
         <v>261.34199999999998</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="10">
         <v>2021</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="11">
         <v>89.226636511630403</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="11">
         <v>5267020634</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="11">
         <v>1242453998</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="11">
         <v>14704149790</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="12">
         <v>20529459727000</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="11">
         <v>305.35599999999999</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="10">
         <v>2022</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="11">
         <v>115.630715521746</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>5526008278</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>1272003003</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>14456828346</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="8">
         <v>20952693656000</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>409.12700000000001</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1576,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51A81E5-33FB-5D4F-84DA-90DBB0281FD0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
